--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.6523517105957</v>
+        <v>219.2641619647156</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.4940762607431</v>
+        <v>300.0068996521065</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.2097293334795</v>
+        <v>271.3746622117262</v>
       </c>
       <c r="AD2" t="n">
-        <v>170652.3517105957</v>
+        <v>219264.1619647155</v>
       </c>
       <c r="AE2" t="n">
-        <v>233494.0762607431</v>
+        <v>300006.8996521065</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08045198527732e-06</v>
+        <v>3.849380865112235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>211209.7293334795</v>
+        <v>271374.6622117262</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.7591698904755</v>
+        <v>173.3708906360442</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.7010002301978</v>
+        <v>237.2137011520128</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.4095363486338</v>
+        <v>214.5743584456539</v>
       </c>
       <c r="AD3" t="n">
-        <v>124759.1698904755</v>
+        <v>173370.8906360442</v>
       </c>
       <c r="AE3" t="n">
-        <v>170701.0002301979</v>
+        <v>237213.7011520129</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.55540499821808e-06</v>
+        <v>4.728168288604665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.944010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>154409.5363486338</v>
+        <v>214574.3584456539</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.5492469819232</v>
+        <v>154.1360488229572</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.8360656273718</v>
+        <v>210.8957420020295</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.4860972587756</v>
+        <v>190.7681483794489</v>
       </c>
       <c r="AD4" t="n">
-        <v>117549.2469819232</v>
+        <v>154136.0488229572</v>
       </c>
       <c r="AE4" t="n">
-        <v>160836.0656273718</v>
+        <v>210895.7420020295</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757775876053562e-06</v>
+        <v>5.102607396216192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>145486.0972587756</v>
+        <v>190768.1483794489</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.1596302922483</v>
+        <v>150.5758399326901</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.1982425332265</v>
+        <v>206.0245071330374</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.2909014915085</v>
+        <v>186.3618173295308</v>
       </c>
       <c r="AD5" t="n">
-        <v>114159.6302922483</v>
+        <v>150575.8399326901</v>
       </c>
       <c r="AE5" t="n">
-        <v>156198.2425332265</v>
+        <v>206024.5071330373</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.835573123553639e-06</v>
+        <v>5.246552672533288e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>141290.9014915085</v>
+        <v>186361.8173295308</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.3156736357552</v>
+        <v>135.7069643716623</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.3070155693019</v>
+        <v>185.6802556219554</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.7710477676482</v>
+        <v>167.9591926293238</v>
       </c>
       <c r="AD6" t="n">
-        <v>111315.6736357552</v>
+        <v>135706.9643716623</v>
       </c>
       <c r="AE6" t="n">
-        <v>152307.0155693019</v>
+        <v>185680.2556219554</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.898571854727569e-06</v>
+        <v>5.363116819181906e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.240885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>137771.0477676482</v>
+        <v>167959.1926293237</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.5015835305077</v>
+        <v>134.8928742664148</v>
       </c>
       <c r="AB7" t="n">
-        <v>151.1931415721822</v>
+        <v>184.5663816248357</v>
       </c>
       <c r="AC7" t="n">
-        <v>136.7634803414813</v>
+        <v>166.9516252031568</v>
       </c>
       <c r="AD7" t="n">
-        <v>110501.5835305077</v>
+        <v>134892.8742664148</v>
       </c>
       <c r="AE7" t="n">
-        <v>151193.1415721822</v>
+        <v>184566.3816248357</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.914747520049366e-06</v>
+        <v>5.393046035049817e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>136763.4803414813</v>
+        <v>166951.6252031568</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.4119933205439</v>
+        <v>173.7884705732668</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.3813955672682</v>
+        <v>237.7850524444471</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.3071009728396</v>
+        <v>215.091180772635</v>
       </c>
       <c r="AD2" t="n">
-        <v>138411.9933205439</v>
+        <v>173788.4705732668</v>
       </c>
       <c r="AE2" t="n">
-        <v>189381.3955672682</v>
+        <v>237785.0524444471</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39991704440962e-06</v>
+        <v>4.574612271598704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>171307.1009728396</v>
+        <v>215091.180772635</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.4900084913464</v>
+        <v>146.7811448894976</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.5455482098327</v>
+        <v>200.8324379648139</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.9868151877495</v>
+        <v>181.6652719556061</v>
       </c>
       <c r="AD3" t="n">
-        <v>111490.0084913464</v>
+        <v>146781.1448894976</v>
       </c>
       <c r="AE3" t="n">
-        <v>152545.5482098327</v>
+        <v>200832.4379648139</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.852035433981264e-06</v>
+        <v>5.436419698637783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.514322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>137986.8151877495</v>
+        <v>181665.2719556061</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.6753072139</v>
+        <v>130.2028209878852</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.9578615124046</v>
+        <v>178.1492438186071</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.0278480628455</v>
+        <v>161.1469300226431</v>
       </c>
       <c r="AD4" t="n">
-        <v>106675.3072139</v>
+        <v>130202.8209878852</v>
       </c>
       <c r="AE4" t="n">
-        <v>145957.8615124046</v>
+        <v>178149.2438186071</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.996044944524166e-06</v>
+        <v>5.71092405106574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.247395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>132027.8480628455</v>
+        <v>161146.9300226432</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.7013063770912</v>
+        <v>127.2288201510764</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.8887023638278</v>
+        <v>174.0800846700303</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.3470437523068</v>
+        <v>157.4661257121045</v>
       </c>
       <c r="AD5" t="n">
-        <v>103701.3063770912</v>
+        <v>127228.8201510764</v>
       </c>
       <c r="AE5" t="n">
-        <v>141888.7023638278</v>
+        <v>174080.0846700303</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.072709967323245e-06</v>
+        <v>5.857059416417645e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>128347.0437523068</v>
+        <v>157466.1257121045</v>
       </c>
     </row>
     <row r="6">
@@ -3703,28 +3703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.6694274540804</v>
+        <v>127.1969412280656</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.8450842149657</v>
+        <v>174.0364665211682</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.3075884583536</v>
+        <v>157.4266704181513</v>
       </c>
       <c r="AD6" t="n">
-        <v>103669.4274540804</v>
+        <v>127196.9412280656</v>
       </c>
       <c r="AE6" t="n">
-        <v>141845.0842149657</v>
+        <v>174036.4665211682</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.074448512722153e-06</v>
+        <v>5.860373352261846e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>128307.5884583536</v>
+        <v>157426.6704181513</v>
       </c>
     </row>
   </sheetData>
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.09550505697533</v>
+        <v>109.0224795479078</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.5361565182921</v>
+        <v>149.1693662497277</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.032354913776</v>
+        <v>134.9328512954147</v>
       </c>
       <c r="AD2" t="n">
-        <v>88095.50505697532</v>
+        <v>109022.4795479078</v>
       </c>
       <c r="AE2" t="n">
-        <v>120536.1565182921</v>
+        <v>149169.3662497277</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.413877533507342e-06</v>
+        <v>7.270665724602885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.13671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>109032.354913776</v>
+        <v>134932.8512954147</v>
       </c>
     </row>
     <row r="3">
@@ -4106,28 +4106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.96455191012082</v>
+        <v>107.2695385291214</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.9380512428924</v>
+        <v>146.7709150135255</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.01834951026807</v>
+        <v>132.7633048789475</v>
       </c>
       <c r="AD3" t="n">
-        <v>75964.55191012082</v>
+        <v>107269.5385291214</v>
       </c>
       <c r="AE3" t="n">
-        <v>103938.0512428924</v>
+        <v>146770.9150135255</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.507696318947881e-06</v>
+        <v>7.470475184939795e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>94018.34951026806</v>
+        <v>132763.3048789475</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.1704312240636</v>
+        <v>134.0858193626641</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.4258473251255</v>
+        <v>183.4621335007751</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.2146787383497</v>
+        <v>165.9527649702343</v>
       </c>
       <c r="AD2" t="n">
-        <v>101170.4312240636</v>
+        <v>134085.8193626641</v>
       </c>
       <c r="AE2" t="n">
-        <v>138425.8473251255</v>
+        <v>183462.1335007751</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.996971481529314e-06</v>
+        <v>6.084888255436546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>125214.6787383497</v>
+        <v>165952.7649702342</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.56022474105244</v>
+        <v>114.3902720250814</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.5942976738317</v>
+        <v>156.5138167272837</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.9438945274504</v>
+        <v>141.5763577273961</v>
       </c>
       <c r="AD3" t="n">
-        <v>81560.22474105244</v>
+        <v>114390.2720250814</v>
       </c>
       <c r="AE3" t="n">
-        <v>111594.2976738317</v>
+        <v>156513.8167272837</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.361888098861775e-06</v>
+        <v>6.825795151850136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.993489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100943.8945274503</v>
+        <v>141576.3577273961</v>
       </c>
     </row>
     <row r="4">
@@ -4615,28 +4615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.77966663613498</v>
+        <v>114.609713920164</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.8945477557767</v>
+        <v>156.8140668092286</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.2154891629782</v>
+        <v>141.847952362924</v>
       </c>
       <c r="AD4" t="n">
-        <v>81779.66663613498</v>
+        <v>114609.713920164</v>
       </c>
       <c r="AE4" t="n">
-        <v>111894.5477557767</v>
+        <v>156814.0668092287</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.35740300375576e-06</v>
+        <v>6.81668885814554e-06</v>
       </c>
       <c r="AG4" t="n">
         <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>101215.4891629782</v>
+        <v>141847.952362924</v>
       </c>
     </row>
   </sheetData>
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.75240858082336</v>
+        <v>101.8454746833611</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.8572520819588</v>
+        <v>139.3494715669515</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.1817529359246</v>
+        <v>126.0501535788509</v>
       </c>
       <c r="AD2" t="n">
-        <v>81752.40858082335</v>
+        <v>101845.4746833611</v>
       </c>
       <c r="AE2" t="n">
-        <v>111857.2520819588</v>
+        <v>139349.4715669515</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.569077264703198e-06</v>
+        <v>7.947637941899675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101181.7529359247</v>
+        <v>126050.1535788508</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.2935986773848</v>
+        <v>190.7171791331799</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.0606233777235</v>
+        <v>260.9476583380209</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.3488726554222</v>
+        <v>236.043180068655</v>
       </c>
       <c r="AD2" t="n">
-        <v>143293.5986773848</v>
+        <v>190717.1791331799</v>
       </c>
       <c r="AE2" t="n">
-        <v>196060.6233777235</v>
+        <v>260947.6583380208</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31066204243352e-06</v>
+        <v>4.36891584029912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>177348.8726554223</v>
+        <v>236043.180068655</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.6247418200728</v>
+        <v>150.2564328028478</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.8346286448681</v>
+        <v>205.5874802067393</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.8665518058287</v>
+        <v>185.9664996397074</v>
       </c>
       <c r="AD3" t="n">
-        <v>114624.7418200728</v>
+        <v>150256.4328028478</v>
       </c>
       <c r="AE3" t="n">
-        <v>156834.6286448681</v>
+        <v>205587.4802067393</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779011350068164e-06</v>
+        <v>5.254453695399361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.60546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>141866.5518058287</v>
+        <v>185966.4996397074</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.2874929481176</v>
+        <v>144.7485917303004</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.5319692754605</v>
+        <v>198.0514090624849</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.2608479972883</v>
+        <v>179.1496605485159</v>
       </c>
       <c r="AD4" t="n">
-        <v>109287.4929481176</v>
+        <v>144748.5917303004</v>
       </c>
       <c r="AE4" t="n">
-        <v>149531.9692754605</v>
+        <v>198051.4090624849</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.941349471005903e-06</v>
+        <v>5.561396716500936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.299479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>135260.8479972883</v>
+        <v>179149.6605485159</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.0667109160796</v>
+        <v>129.8212610798141</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.1251532083535</v>
+        <v>177.6271767191493</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.2746122706193</v>
+        <v>160.6746882744316</v>
       </c>
       <c r="AD5" t="n">
-        <v>106066.7109160796</v>
+        <v>129821.2610798141</v>
       </c>
       <c r="AE5" t="n">
-        <v>145125.1532083534</v>
+        <v>177627.1767191493</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.020029857450963e-06</v>
+        <v>5.71016273262446e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>131274.6122706193</v>
+        <v>160674.6882744316</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.2414660560657</v>
+        <v>128.9960162198001</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.9960167836492</v>
+        <v>176.498040294445</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.2532390415355</v>
+        <v>159.6533150453479</v>
       </c>
       <c r="AD6" t="n">
-        <v>105241.4660560657</v>
+        <v>128996.0162198001</v>
       </c>
       <c r="AE6" t="n">
-        <v>143996.0167836492</v>
+        <v>176498.040294445</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.04242792366525e-06</v>
+        <v>5.752512182469841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>130253.2390415355</v>
+        <v>159653.3150453478</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.06242738123689</v>
+        <v>98.66169485938519</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.1767011310915</v>
+        <v>134.9932835533372</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.85246860212126</v>
+        <v>122.1097140353062</v>
       </c>
       <c r="AD2" t="n">
-        <v>79062.42738123689</v>
+        <v>98661.6948593852</v>
       </c>
       <c r="AE2" t="n">
-        <v>108176.7011310915</v>
+        <v>134993.2835533372</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.587692647998437e-06</v>
+        <v>8.225024867506588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>97852.46860212127</v>
+        <v>122109.7140353062</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.5388943724969</v>
+        <v>159.6395150264468</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.7678536655154</v>
+        <v>218.4258272574334</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.3745707894232</v>
+        <v>197.5795728666206</v>
       </c>
       <c r="AD2" t="n">
-        <v>125538.8943724969</v>
+        <v>159639.5150264468</v>
       </c>
       <c r="AE2" t="n">
-        <v>171767.8536655154</v>
+        <v>218425.8272574334</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.662529715165973e-06</v>
+        <v>5.218521445739887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155374.5707894232</v>
+        <v>197579.5728666206</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.3726648191632</v>
+        <v>125.1633356610279</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.0707963687429</v>
+        <v>171.2539976680029</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.7026361539453</v>
+        <v>154.9097564871116</v>
       </c>
       <c r="AD3" t="n">
-        <v>102372.6648191632</v>
+        <v>125163.3356610279</v>
       </c>
       <c r="AE3" t="n">
-        <v>140070.7963687429</v>
+        <v>171253.9976680028</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.08302341969154e-06</v>
+        <v>6.04268329541468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.25390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>126702.6361539453</v>
+        <v>154909.7564871116</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.43878377028567</v>
+        <v>121.2294546121504</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.6882867670881</v>
+        <v>165.871488066348</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.833825714271</v>
+        <v>150.0409460474373</v>
       </c>
       <c r="AD4" t="n">
-        <v>98438.78377028566</v>
+        <v>121229.4546121504</v>
       </c>
       <c r="AE4" t="n">
-        <v>134688.2867670881</v>
+        <v>165871.488066348</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.207813173679249e-06</v>
+        <v>6.287269488644402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>121833.825714271</v>
+        <v>150040.9460474373</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.55892810048114</v>
+        <v>121.3495989423458</v>
       </c>
       <c r="AB5" t="n">
-        <v>134.8526735400552</v>
+        <v>166.0358748393151</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.9825236443444</v>
+        <v>150.1896439775108</v>
       </c>
       <c r="AD5" t="n">
-        <v>98558.92810048113</v>
+        <v>121349.5989423459</v>
       </c>
       <c r="AE5" t="n">
-        <v>134852.6735400552</v>
+        <v>166035.8748393151</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.207589268618266e-06</v>
+        <v>6.28683063781923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>121982.5236443444</v>
+        <v>150189.6439775108</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.2115018929943</v>
+        <v>169.063882344987</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.6340978834946</v>
+        <v>231.3206623963958</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.1083173136206</v>
+        <v>209.2437430379393</v>
       </c>
       <c r="AD2" t="n">
-        <v>134211.5018929943</v>
+        <v>169063.882344987</v>
       </c>
       <c r="AE2" t="n">
-        <v>183634.0978834946</v>
+        <v>231320.6623963958</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.478679308477211e-06</v>
+        <v>4.765764343809647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>166108.3173136206</v>
+        <v>209243.7430379392</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.6335482469414</v>
+        <v>143.4005878443624</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.6372132853076</v>
+        <v>196.2070106760112</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.4514862630373</v>
+        <v>177.4812889554173</v>
       </c>
       <c r="AD3" t="n">
-        <v>108633.5482469414</v>
+        <v>143400.5878443624</v>
       </c>
       <c r="AE3" t="n">
-        <v>148637.2132853076</v>
+        <v>196207.0106760112</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.922075416311136e-06</v>
+        <v>5.618283406550806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>134451.4862630373</v>
+        <v>177481.2889554173</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.5576978460806</v>
+        <v>126.8495418866405</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.692210836138</v>
+        <v>173.5611394160533</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.1693051002421</v>
+        <v>156.9967078648226</v>
       </c>
       <c r="AD4" t="n">
-        <v>103557.6978460806</v>
+        <v>126849.5418866405</v>
       </c>
       <c r="AE4" t="n">
-        <v>141692.210836138</v>
+        <v>173561.1394160533</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075716189685365e-06</v>
+        <v>5.913688994921204e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>128169.3051002421</v>
+        <v>156996.7078648226</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.7282477090709</v>
+        <v>125.0200917496308</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.1890764490386</v>
+        <v>171.0580050289539</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.9050663458755</v>
+        <v>154.7324691104561</v>
       </c>
       <c r="AD5" t="n">
-        <v>101728.2477090709</v>
+        <v>125020.0917496308</v>
       </c>
       <c r="AE5" t="n">
-        <v>139189.0764490386</v>
+        <v>171058.005028954</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.130001133728583e-06</v>
+        <v>6.018062824097924e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.071614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>125905.0663458755</v>
+        <v>154732.4691104561</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.7772423795874</v>
+        <v>202.0558982062466</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.8237365994165</v>
+        <v>276.4617940027641</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.1759975275473</v>
+        <v>250.0766683997862</v>
       </c>
       <c r="AD2" t="n">
-        <v>165777.2423795874</v>
+        <v>202055.8982062466</v>
       </c>
       <c r="AE2" t="n">
-        <v>226823.7365994165</v>
+        <v>276461.794002764</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147645082674892e-06</v>
+        <v>4.000899897823276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>205175.9975275472</v>
+        <v>250076.6683997862</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.3955412807859</v>
+        <v>157.6741075988941</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.0987351736017</v>
+        <v>215.7366701074009</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.2465050097181</v>
+        <v>195.1470651007305</v>
       </c>
       <c r="AD3" t="n">
-        <v>121395.5412807859</v>
+        <v>157674.1075988941</v>
       </c>
       <c r="AE3" t="n">
-        <v>166098.7351736017</v>
+        <v>215736.6701074009</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.621995132103119e-06</v>
+        <v>4.884578062152977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.83984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>150246.5050097181</v>
+        <v>195147.0651007305</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.3638603286067</v>
+        <v>151.4718344461227</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.845923195851</v>
+        <v>207.2504463548033</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.7813298242269</v>
+        <v>187.4707546325883</v>
       </c>
       <c r="AD4" t="n">
-        <v>115363.8603286067</v>
+        <v>151471.8344461227</v>
       </c>
       <c r="AE4" t="n">
-        <v>157845.923195851</v>
+        <v>207250.4463548033</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800785173549728e-06</v>
+        <v>5.217650348782677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>142781.3298242269</v>
+        <v>187470.7546325883</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.3988476763737</v>
+        <v>135.5846480636635</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.4208179610557</v>
+        <v>185.5128970531369</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.8739890188558</v>
+        <v>167.807806527424</v>
       </c>
       <c r="AD5" t="n">
-        <v>111398.8476763737</v>
+        <v>135584.6480636635</v>
       </c>
       <c r="AE5" t="n">
-        <v>152420.8179610557</v>
+        <v>185512.8970531369</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.901908952749298e-06</v>
+        <v>5.406036279554417e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>137873.9890188558</v>
+        <v>167807.806527424</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.5268345314938</v>
+        <v>132.7126349187836</v>
       </c>
       <c r="AB6" t="n">
-        <v>148.4912028719555</v>
+        <v>181.5832819640367</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.3194108786086</v>
+        <v>164.2532283871768</v>
       </c>
       <c r="AD6" t="n">
-        <v>108526.8345314938</v>
+        <v>132712.6349187836</v>
       </c>
       <c r="AE6" t="n">
-        <v>148491.2028719555</v>
+        <v>181583.2819640367</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.963552578040799e-06</v>
+        <v>5.520873678023929e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>134319.4108786086</v>
+        <v>164253.2283871768</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.6951579498266</v>
+        <v>132.8809583371164</v>
       </c>
       <c r="AB7" t="n">
-        <v>148.7215103988234</v>
+        <v>181.8135894909045</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.527738178351</v>
+        <v>164.4615556869191</v>
       </c>
       <c r="AD7" t="n">
-        <v>108695.1579498266</v>
+        <v>132880.9583371164</v>
       </c>
       <c r="AE7" t="n">
-        <v>148721.5103988234</v>
+        <v>181813.5894909046</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.961693858041551e-06</v>
+        <v>5.517411023642595e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>134527.738178351</v>
+        <v>164461.5556869191</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1693298149068</v>
+        <v>138.5307802822335</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.8973167960693</v>
+        <v>189.5439251287628</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.163958842244</v>
+        <v>171.4541189410968</v>
       </c>
       <c r="AD2" t="n">
-        <v>105169.3298149068</v>
+        <v>138530.7802822335</v>
       </c>
       <c r="AE2" t="n">
-        <v>143897.3167960693</v>
+        <v>189543.9251287628</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.888192519801499e-06</v>
+        <v>5.789374266569954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.735677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>130163.958842244</v>
+        <v>171454.1189410968</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.82023698569412</v>
+        <v>118.061293472463</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.1054755342808</v>
+        <v>161.5366702256248</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.5929529570144</v>
+        <v>146.1198371374763</v>
       </c>
       <c r="AD3" t="n">
-        <v>95820.23698569412</v>
+        <v>118061.293472463</v>
       </c>
       <c r="AE3" t="n">
-        <v>131105.4755342808</v>
+        <v>161536.6702256248</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.267148791479899e-06</v>
+        <v>6.548991110796462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.071614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>118592.9529570145</v>
+        <v>146119.8371374763</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.83415830197374</v>
+        <v>117.0752147887426</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.7562791764939</v>
+        <v>160.187473867838</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.3725220060054</v>
+        <v>144.8994061864672</v>
       </c>
       <c r="AD4" t="n">
-        <v>94834.15830197374</v>
+        <v>117075.2147887426</v>
       </c>
       <c r="AE4" t="n">
-        <v>129756.2791764939</v>
+        <v>160187.473867838</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300213286167584e-06</v>
+        <v>6.61526880294116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>117372.5220060054</v>
+        <v>144899.4061864672</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.24770816712852</v>
+        <v>113.5382956894234</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.2173839958738</v>
+        <v>155.3481051182938</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.1713740145519</v>
+        <v>140.5218999982813</v>
       </c>
       <c r="AD2" t="n">
-        <v>92247.70816712853</v>
+        <v>113538.2956894234</v>
       </c>
       <c r="AE2" t="n">
-        <v>126217.3839958738</v>
+        <v>155348.1051182938</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.280921933492243e-06</v>
+        <v>6.863893866889125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>114171.3740145519</v>
+        <v>140521.8999982813</v>
       </c>
     </row>
     <row r="3">
@@ -8899,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.98487295371577</v>
+        <v>109.8352791197599</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.7023436250116</v>
+        <v>150.2814744821214</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.51882170714738</v>
+        <v>135.9388214789628</v>
       </c>
       <c r="AD3" t="n">
-        <v>77984.87295371576</v>
+        <v>109835.2791197599</v>
       </c>
       <c r="AE3" t="n">
-        <v>106702.3436250115</v>
+        <v>150281.4744821214</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.452284686792769e-06</v>
+        <v>7.222395463463456e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>96518.82170714738</v>
+        <v>135938.8214789628</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.0963634987491</v>
+        <v>104.6272234130879</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.064354608656</v>
+        <v>143.1555829010545</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0827740986716</v>
+        <v>129.493014989139</v>
       </c>
       <c r="AD2" t="n">
-        <v>84096.3634987491</v>
+        <v>104627.2234130879</v>
       </c>
       <c r="AE2" t="n">
-        <v>115064.354608656</v>
+        <v>143155.5829010545</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.542265640708913e-06</v>
+        <v>7.700374601420649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>104082.7740986716</v>
+        <v>129493.014989139</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.39741250177369</v>
+        <v>104.9282724161124</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.4762631359387</v>
+        <v>143.5674914283371</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.4553706542278</v>
+        <v>129.8656115446952</v>
       </c>
       <c r="AD3" t="n">
-        <v>84397.41250177368</v>
+        <v>104928.2724161124</v>
       </c>
       <c r="AE3" t="n">
-        <v>115476.2631359387</v>
+        <v>143567.4914283371</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.534668096941482e-06</v>
+        <v>7.683858637065078e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104455.3706542278</v>
+        <v>129865.6115446952</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.97535789443933</v>
+        <v>104.3418977169684</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.9528364673633</v>
+        <v>142.7651876959428</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.0317236536667</v>
+        <v>129.1398785544799</v>
       </c>
       <c r="AD2" t="n">
-        <v>75975.35789443932</v>
+        <v>104341.8977169685</v>
       </c>
       <c r="AE2" t="n">
-        <v>103952.8364673633</v>
+        <v>142765.1876959428</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.556826126445042e-06</v>
+        <v>8.460006846312835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>94031.7236536667</v>
+        <v>129139.8785544799</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.3026865168699</v>
+        <v>163.7872040743096</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.9176401242344</v>
+        <v>224.1008783958429</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.0328688562943</v>
+        <v>202.7130050893663</v>
       </c>
       <c r="AD2" t="n">
-        <v>129302.6865168699</v>
+        <v>163787.2040743096</v>
       </c>
       <c r="AE2" t="n">
-        <v>176917.6401242344</v>
+        <v>224100.8783958429</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.581761817187578e-06</v>
+        <v>5.010110687087764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>160032.8688562943</v>
+        <v>202713.0050893663</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.5468136474214</v>
+        <v>139.9459903502894</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.4138068291268</v>
+        <v>191.4802779785377</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.6311557914449</v>
+        <v>173.2056689925781</v>
       </c>
       <c r="AD3" t="n">
-        <v>105546.8136474214</v>
+        <v>139945.9903502894</v>
       </c>
       <c r="AE3" t="n">
-        <v>144413.8068291268</v>
+        <v>191480.2779785377</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.996865433158129e-06</v>
+        <v>5.815651712901041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>130631.1557914449</v>
+        <v>173205.6689925781</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.7745589149699</v>
+        <v>123.8211610258278</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.8841973671702</v>
+        <v>169.417575119557</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.7247230921709</v>
+        <v>153.2485995292537</v>
       </c>
       <c r="AD4" t="n">
-        <v>100774.5589149699</v>
+        <v>123821.1610258278</v>
       </c>
       <c r="AE4" t="n">
-        <v>137884.1973671702</v>
+        <v>169417.575119557</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149356495213854e-06</v>
+        <v>6.111572542857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.091145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>124724.7230921709</v>
+        <v>153248.5995292536</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.2332241108279</v>
+        <v>123.2798262216858</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.1435192061375</v>
+        <v>168.6768969585243</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.0547342152786</v>
+        <v>152.5786106523613</v>
       </c>
       <c r="AD5" t="n">
-        <v>100233.2241108279</v>
+        <v>123279.8262216858</v>
       </c>
       <c r="AE5" t="n">
-        <v>137143.5192061375</v>
+        <v>168676.8969585243</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.163734083241066e-06</v>
+        <v>6.139473376679132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>124054.7342152786</v>
+        <v>152578.6106523613</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.1637824338691</v>
+        <v>196.0257643957947</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.7242236506854</v>
+        <v>268.2110988925796</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.3765082707565</v>
+        <v>242.6134080509918</v>
       </c>
       <c r="AD2" t="n">
-        <v>148163.7824338691</v>
+        <v>196025.7643957947</v>
       </c>
       <c r="AE2" t="n">
-        <v>202724.2236506855</v>
+        <v>268211.0988925796</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.231721934839954e-06</v>
+        <v>4.187585696367717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.920572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>183376.5082707565</v>
+        <v>242613.4080509918</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.143393232505</v>
+        <v>154.1038853448779</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.6490027393</v>
+        <v>210.8517345123689</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.221448793706</v>
+        <v>190.7283409028366</v>
       </c>
       <c r="AD3" t="n">
-        <v>118143.393232505</v>
+        <v>154103.8853448779</v>
       </c>
       <c r="AE3" t="n">
-        <v>161649.0027393</v>
+        <v>210851.7345123689</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.693505773234993e-06</v>
+        <v>5.054073302322767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.735677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>146221.448793706</v>
+        <v>190728.3409028366</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.2751022586818</v>
+        <v>148.0650021704625</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.6197481381929</v>
+        <v>202.5890681364149</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.9584949825965</v>
+        <v>183.2542518090761</v>
       </c>
       <c r="AD4" t="n">
-        <v>112275.1022586818</v>
+        <v>148065.0021704625</v>
       </c>
       <c r="AE4" t="n">
-        <v>153619.7481381929</v>
+        <v>202589.0681364149</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.87174271019168e-06</v>
+        <v>5.3885157057926e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>138958.4949825965</v>
+        <v>183254.2518090761</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.1689980978541</v>
+        <v>132.1427490146537</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.0015952768205</v>
+        <v>180.8035389284148</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.8765307451846</v>
+        <v>163.5479029324983</v>
       </c>
       <c r="AD5" t="n">
-        <v>108168.9980978541</v>
+        <v>132142.7490146537</v>
       </c>
       <c r="AE5" t="n">
-        <v>148001.5952768205</v>
+        <v>180803.5389284148</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.97975718829148e-06</v>
+        <v>5.591193233144942e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>133876.5307451846</v>
+        <v>163547.9029324983</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>107.0234976803434</v>
+        <v>130.997248597143</v>
       </c>
       <c r="AB6" t="n">
-        <v>146.4342710696714</v>
+        <v>179.2362147212657</v>
       </c>
       <c r="AC6" t="n">
-        <v>132.4587897606119</v>
+        <v>162.1301619479256</v>
       </c>
       <c r="AD6" t="n">
-        <v>107023.4976803434</v>
+        <v>130997.248597143</v>
       </c>
       <c r="AE6" t="n">
-        <v>146434.2710696714</v>
+        <v>179236.2147212657</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.989863528653992e-06</v>
+        <v>5.610156691667257e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>132458.789760612</v>
+        <v>162130.1619479256</v>
       </c>
     </row>
     <row r="7">
@@ -17318,28 +17318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.1892509957933</v>
+        <v>131.163001912593</v>
       </c>
       <c r="AB7" t="n">
-        <v>146.6610620683901</v>
+        <v>179.4630057199844</v>
       </c>
       <c r="AC7" t="n">
-        <v>132.6639361447161</v>
+        <v>162.3353083320298</v>
       </c>
       <c r="AD7" t="n">
-        <v>107189.2509957933</v>
+        <v>131163.001912593</v>
       </c>
       <c r="AE7" t="n">
-        <v>146661.0620683901</v>
+        <v>179463.0057199844</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.988938300310946e-06</v>
+        <v>5.608420600394089e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>132663.9361447161</v>
+        <v>162335.3083320298</v>
       </c>
     </row>
   </sheetData>
@@ -17615,28 +17615,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.32045353528518</v>
+        <v>99.80103242498498</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.95203508017077</v>
+        <v>136.5521754746159</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.5081917321974</v>
+        <v>123.5198274995371</v>
       </c>
       <c r="AD2" t="n">
-        <v>72320.45353528518</v>
+        <v>99801.03242498498</v>
       </c>
       <c r="AE2" t="n">
-        <v>98952.03508017077</v>
+        <v>136552.1754746159</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.383629503079526e-06</v>
+        <v>8.462200605143577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.865885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89508.1917321974</v>
+        <v>123519.8274995371</v>
       </c>
     </row>
   </sheetData>
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.86512788971501</v>
+        <v>129.1363766121512</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.5351413664947</v>
+        <v>176.6900875755231</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.886173488751</v>
+        <v>159.82703360346</v>
       </c>
       <c r="AD2" t="n">
-        <v>96865.12788971502</v>
+        <v>129136.3766121512</v>
       </c>
       <c r="AE2" t="n">
-        <v>132535.1413664947</v>
+        <v>176690.0875755231</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.125975160153154e-06</v>
+        <v>6.437268937794801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>119886.173488751</v>
+        <v>159827.03360346</v>
       </c>
     </row>
     <row r="3">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.85390732764671</v>
+        <v>112.4818907848833</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.3103241971424</v>
+        <v>153.9026853226076</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.4463213264356</v>
+        <v>139.2144290392355</v>
       </c>
       <c r="AD3" t="n">
-        <v>90853.90732764671</v>
+        <v>112481.8907848833</v>
       </c>
       <c r="AE3" t="n">
-        <v>124310.3241971424</v>
+        <v>153902.6853226076</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.397052736290005e-06</v>
+        <v>6.995494506200457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>112446.3213264356</v>
+        <v>139214.4290392355</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.4658537188779</v>
+        <v>143.2497757051981</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.7760103507366</v>
+        <v>196.0006628538447</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.4815981348539</v>
+        <v>177.2946346797873</v>
       </c>
       <c r="AD2" t="n">
-        <v>109465.8537188779</v>
+        <v>143249.7757051981</v>
       </c>
       <c r="AE2" t="n">
-        <v>149776.0103507366</v>
+        <v>196000.6628538447</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.775621271397911e-06</v>
+        <v>5.499016763219992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>135481.5981348539</v>
+        <v>177294.6346797873</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.26319617364855</v>
+        <v>121.7859003397464</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.816284187877</v>
+        <v>166.6328416594974</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.8541686443744</v>
+        <v>150.7296371222233</v>
       </c>
       <c r="AD3" t="n">
-        <v>99263.19617364855</v>
+        <v>121785.9003397464</v>
       </c>
       <c r="AE3" t="n">
-        <v>135816.284187877</v>
+        <v>166632.8416594974</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.160376544703853e-06</v>
+        <v>6.261287797618384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>122854.1686443744</v>
+        <v>150729.6371222233</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.54940655725196</v>
+        <v>119.0721107233498</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.1031575107769</v>
+        <v>162.9197149823973</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.4954175659295</v>
+        <v>147.3708860437784</v>
       </c>
       <c r="AD4" t="n">
-        <v>96549.40655725196</v>
+        <v>119072.1107233498</v>
       </c>
       <c r="AE4" t="n">
-        <v>132103.1575107769</v>
+        <v>162919.7149823973</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.253578132647529e-06</v>
+        <v>6.445937302845325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>119495.4175659295</v>
+        <v>147370.8860437784</v>
       </c>
     </row>
   </sheetData>
